--- a/DogAge.xlsx
+++ b/DogAge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raman/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raman/PycharmProjects/DogCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F18A20-8047-114B-93CB-F995C252CA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098FF77-C6C1-6945-B96D-2D3E7312B031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14100" xr2:uid="{6D23D482-F3CB-344E-B837-B273395DCF74}"/>
   </bookViews>
@@ -160,7 +160,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="6"/>
+            <c:order val="3"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -551,7 +552,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -947,6 +950,1172 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>426.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1826.2125000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3287.1824999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80CF-4549-851B-99F4A20B9EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1569231"/>
+        <c:axId val="1570911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1569231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1570911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1570911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>365.24250000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1095.7275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1460.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1826.2125000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2191.4549999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5478.6374999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8765.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10226.790000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11687.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13148.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15340.184999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C1A-0E48-87D9-CF541227439E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1723151"/>
+        <c:axId val="1724831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1723151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1724831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F73-5742-9E2C-18B67E1E219B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75843551"/>
+        <c:axId val="75845231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75843551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75845231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75845231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75843551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1027,6 +2196,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1544,6 +2833,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2128,6 +4965,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD4D8C3-32BF-EF45-BDAC-F0487876EF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359DB3D8-A419-D445-B94A-F0E3303AACAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28A8520-F84B-BC47-87FA-1AB6DA32643C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2435,21 +5380,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42733B13-77A4-FC4B-A231-BEB632EDD229}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <f>A1*E1</f>
+        <f>A2*E1</f>
         <v>365.24250000000001</v>
       </c>
       <c r="E1">
@@ -2464,13 +5409,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <f>A2*E1</f>
+        <f>A3*E1</f>
         <v>730.48500000000001</v>
       </c>
       <c r="I2">
@@ -2482,13 +5427,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <f>A3*E1</f>
+        <f>A4*E1</f>
         <v>1095.7275</v>
       </c>
       <c r="I3">
@@ -2500,13 +5445,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <f>A4*E1</f>
+        <f>A5*E1</f>
         <v>1460.97</v>
       </c>
       <c r="I4">
@@ -2518,13 +5463,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <f>A5*E1</f>
+        <f>A6*E1</f>
         <v>1826.2125000000001</v>
       </c>
       <c r="F5">
@@ -2534,23 +5479,23 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <f>F5*365.2425</f>
+        <f t="shared" ref="I5:I20" si="0">F5*365.2425</f>
         <v>365.24250000000001</v>
       </c>
       <c r="J5">
-        <f>G5*365.2425</f>
+        <f t="shared" ref="J5:J20" si="1">G5*365.2425</f>
         <v>5478.6374999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <f>A6*E1</f>
+        <f>A7*E1</f>
         <v>2191.4549999999999</v>
       </c>
       <c r="F6">
@@ -2560,20 +5505,20 @@
         <v>24</v>
       </c>
       <c r="I6">
-        <f>F6*365.2425</f>
+        <f t="shared" si="0"/>
         <v>730.48500000000001</v>
       </c>
       <c r="J6">
-        <f>G6*365.2425</f>
+        <f t="shared" si="1"/>
         <v>8765.82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2582,20 +5527,20 @@
         <v>28</v>
       </c>
       <c r="I7">
-        <f>F7*365.2425</f>
+        <f t="shared" si="0"/>
         <v>1095.7275</v>
       </c>
       <c r="J7">
-        <f>G7*365.2425</f>
+        <f t="shared" si="1"/>
         <v>10226.790000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2604,20 +5549,20 @@
         <v>32</v>
       </c>
       <c r="I8">
-        <f>F8*365.2425</f>
+        <f t="shared" si="0"/>
         <v>1460.97</v>
       </c>
       <c r="J8">
-        <f>G8*365.2425</f>
+        <f t="shared" si="1"/>
         <v>11687.76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2626,20 +5571,20 @@
         <v>36</v>
       </c>
       <c r="I9">
-        <f>F9*365.2425</f>
+        <f t="shared" si="0"/>
         <v>1826.2125000000001</v>
       </c>
       <c r="J9">
-        <f>G9*365.2425</f>
+        <f t="shared" si="1"/>
         <v>13148.73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -2648,20 +5593,20 @@
         <v>42</v>
       </c>
       <c r="I10">
-        <f>F10*365.2425</f>
+        <f t="shared" si="0"/>
         <v>2191.4549999999999</v>
       </c>
       <c r="J10">
-        <f>G10*365.2425</f>
+        <f t="shared" si="1"/>
         <v>15340.184999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -2670,20 +5615,20 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <f>F11*365.2425</f>
+        <f t="shared" si="0"/>
         <v>2556.6975000000002</v>
       </c>
       <c r="J11">
-        <f>G11*365.2425</f>
+        <f t="shared" si="1"/>
         <v>17166.397499999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -2692,20 +5637,20 @@
         <v>51</v>
       </c>
       <c r="I12">
-        <f>F12*365.2425</f>
+        <f t="shared" si="0"/>
         <v>2921.94</v>
       </c>
       <c r="J12">
-        <f>G12*365.2425</f>
+        <f t="shared" si="1"/>
         <v>18627.3675</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -2714,20 +5659,20 @@
         <v>56</v>
       </c>
       <c r="I13">
-        <f>F13*365.2425</f>
+        <f t="shared" si="0"/>
         <v>3287.1824999999999</v>
       </c>
       <c r="J13">
-        <f>G13*365.2425</f>
+        <f t="shared" si="1"/>
         <v>20453.580000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -2736,20 +5681,20 @@
         <v>60</v>
       </c>
       <c r="I14">
-        <f>F14*365.2425</f>
+        <f t="shared" si="0"/>
         <v>3652.4250000000002</v>
       </c>
       <c r="J14">
-        <f>G14*365.2425</f>
+        <f t="shared" si="1"/>
         <v>21914.55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -2758,20 +5703,20 @@
         <v>65</v>
       </c>
       <c r="I15">
-        <f>F15*365.2425</f>
+        <f t="shared" si="0"/>
         <v>4017.6675</v>
       </c>
       <c r="J15">
-        <f>G15*365.2425</f>
+        <f t="shared" si="1"/>
         <v>23740.762500000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>12</v>
@@ -2780,15 +5725,21 @@
         <v>69</v>
       </c>
       <c r="I16">
-        <f>F16*365.2425</f>
+        <f t="shared" si="0"/>
         <v>4382.91</v>
       </c>
       <c r="J16">
-        <f>G16*365.2425</f>
+        <f t="shared" si="1"/>
         <v>25201.732500000002</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>87</v>
+      </c>
       <c r="F17">
         <v>13</v>
       </c>
@@ -2796,15 +5747,15 @@
         <v>74</v>
       </c>
       <c r="I17">
-        <f>F17*365.2425</f>
+        <f t="shared" si="0"/>
         <v>4748.1525000000001</v>
       </c>
       <c r="J17">
-        <f>G17*365.2425</f>
+        <f t="shared" si="1"/>
         <v>27027.945</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>14</v>
       </c>
@@ -2812,15 +5763,15 @@
         <v>78</v>
       </c>
       <c r="I18">
-        <f>F18*365.2425</f>
+        <f t="shared" si="0"/>
         <v>5113.3950000000004</v>
       </c>
       <c r="J18">
-        <f>G18*365.2425</f>
+        <f t="shared" si="1"/>
         <v>28488.915000000001</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>15</v>
       </c>
@@ -2828,15 +5779,15 @@
         <v>83</v>
       </c>
       <c r="I19">
-        <f>F19*365.2425</f>
+        <f t="shared" si="0"/>
         <v>5478.6374999999998</v>
       </c>
       <c r="J19">
-        <f>G19*365.2425</f>
+        <f t="shared" si="1"/>
         <v>30315.127500000002</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>16</v>
       </c>
@@ -2844,15 +5795,15 @@
         <v>87</v>
       </c>
       <c r="I20">
-        <f>F20*365.2425</f>
+        <f t="shared" si="0"/>
         <v>5843.88</v>
       </c>
       <c r="J20">
-        <f>G20*365.2425</f>
+        <f t="shared" si="1"/>
         <v>31776.0975</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>17</v>
       </c>
@@ -2860,15 +5811,15 @@
         <v>92</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I34" si="0">F21*365.2425</f>
+        <f t="shared" ref="I21:I34" si="2">F21*365.2425</f>
         <v>6209.1225000000004</v>
       </c>
       <c r="J21">
-        <f>G21*365.2425</f>
+        <f t="shared" ref="J21:J34" si="3">G21*365.2425</f>
         <v>33602.31</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>18</v>
       </c>
@@ -2876,15 +5827,15 @@
         <v>96</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6574.3649999999998</v>
       </c>
       <c r="J22">
-        <f>G22*365.2425</f>
+        <f t="shared" si="3"/>
         <v>35063.279999999999</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>19</v>
       </c>
@@ -2892,15 +5843,15 @@
         <v>101</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6939.6075000000001</v>
       </c>
       <c r="J23">
-        <f>G23*365.2425</f>
+        <f t="shared" si="3"/>
         <v>36889.4925</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>20</v>
       </c>
@@ -2908,15 +5859,15 @@
         <v>105</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7304.85</v>
       </c>
       <c r="J24">
-        <f>G24*365.2425</f>
+        <f t="shared" si="3"/>
         <v>38350.462500000001</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>21</v>
       </c>
@@ -2924,15 +5875,15 @@
         <v>110</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7670.0924999999997</v>
       </c>
       <c r="J25">
-        <f>G25*365.2425</f>
+        <f t="shared" si="3"/>
         <v>40176.675000000003</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>22</v>
       </c>
@@ -2940,15 +5891,15 @@
         <v>114</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8035.335</v>
       </c>
       <c r="J26">
-        <f>G26*365.2425</f>
+        <f t="shared" si="3"/>
         <v>41637.645000000004</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>23</v>
       </c>
@@ -2956,15 +5907,15 @@
         <v>119</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8400.5774999999994</v>
       </c>
       <c r="J27">
-        <f>G27*365.2425</f>
+        <f t="shared" si="3"/>
         <v>43463.857499999998</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>24</v>
       </c>
@@ -2972,15 +5923,15 @@
         <v>123</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8765.82</v>
       </c>
       <c r="J28">
-        <f>G28*365.2425</f>
+        <f t="shared" si="3"/>
         <v>44924.827499999999</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>25</v>
       </c>
@@ -2988,15 +5939,15 @@
         <v>128</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9131.0625</v>
       </c>
       <c r="J29">
-        <f>G29*365.2425</f>
+        <f t="shared" si="3"/>
         <v>46751.040000000001</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>26</v>
       </c>
@@ -3004,15 +5955,15 @@
         <v>132</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9496.3050000000003</v>
       </c>
       <c r="J30">
-        <f>G30*365.2425</f>
+        <f t="shared" si="3"/>
         <v>48212.01</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>27</v>
       </c>
@@ -3020,15 +5971,15 @@
         <v>137</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9861.5475000000006</v>
       </c>
       <c r="J31">
-        <f>G31*365.2425</f>
+        <f t="shared" si="3"/>
         <v>50038.222500000003</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>28</v>
       </c>
@@ -3036,11 +5987,11 @@
         <v>141</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10226.790000000001</v>
       </c>
       <c r="J32">
-        <f>G32*365.2425</f>
+        <f t="shared" si="3"/>
         <v>51499.192499999997</v>
       </c>
     </row>
@@ -3052,11 +6003,11 @@
         <v>146</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10592.032499999999</v>
       </c>
       <c r="J33">
-        <f>G33*365.2425</f>
+        <f t="shared" si="3"/>
         <v>53325.404999999999</v>
       </c>
     </row>
@@ -3068,11 +6019,11 @@
         <v>150</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10957.275</v>
       </c>
       <c r="J34">
-        <f>G34*365.2425</f>
+        <f t="shared" si="3"/>
         <v>54786.375</v>
       </c>
     </row>
